--- a/precursores.xlsx
+++ b/precursores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0cd93e2dd6eaf98/IS/HF4-Shell/Precursores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{55C246F7-9EC4-48C2-8C33-509D0FADF52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6FB5D57-C89B-4B5E-86DF-82D3F264C72D}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{55C246F7-9EC4-48C2-8C33-509D0FADF52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E4A0C5C-A95B-42AC-9234-50DF43E9BA08}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15C0232E-BAAD-418E-84CC-EF2D84C8FD1C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{15C0232E-BAAD-418E-84CC-EF2D84C8FD1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,13 @@
     <t>erro humano; falta de atenção; falha operacional; erro de julgamento; uso incorreto de epi; decisão inadequada; violação de regra; erro de comunicação verbal; descumprimento de procedimento; lesão no dedo; cortou o; porta deixada aberta; não estava usando; objeto derrubado; detector coberto; sem epi; falta de epi; falta de concentração; erro do operador; não seguiu o procedimento; deixou aberto; lesão na mão; lesão no olho</t>
   </si>
   <si>
-    <t>communication failure; absence of procedure; inadequate supervision; insufficient training; lack of planning; high turnover; lack of resources; outdated procedure; weak security culture; ineffective management of change; failure in risk assessment; inappropriate prioritization; lack of lessons learned; technical review missing; production pressure; documentation inconsistency; no procedure; lack of communication; missing procedure; no schedule; poor maintenance; no inspection; unplanned activity; preventive maintenance issue; planning failure; no pre-task briefing; poor training;</t>
-  </si>
-  <si>
     <t>tecnical fault; equipment breakdown; electrical fault; sensor failure; alarm failure; structural failure; unintended pressurization; dropped object; gas leak; loss of containment; miscalibrated equipment; mechanical degradation; insulation failure; hydraulic failure; seal failure; critical system defect; pipe rupture</t>
   </si>
   <si>
     <t>human error; lack of attention; operational failure; misjudgment; improper use of ppe; inadequate decision; rule violation; verbal communication error; noncompliance with procedure; finger injury; cut injury; door left open; not wearing; dropped object; covered detector; no epi; without epi; lack of concentration; operator error; did not follow procedure; left open; hand injury; eye injury</t>
+  </si>
+  <si>
+    <t>communication failure; absence of procedure; inadequate supervision; insufficient training; lack of planning; high turnover; lack of resources; outdated procedure; weak security culture; ineffective management of change; failure in risk assessment; inappropriate prioritization; lack of lessons learned; technical review missing; production pressure; documentation inconsistency; no procedure; lack of communication; missing procedure; no schedule; poor maintenance; no inspection; unplanned activity; preventive maintenance issue; planning failure; no pre-task briefing; poor training</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -496,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -507,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/precursores.xlsx
+++ b/precursores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0cd93e2dd6eaf98/IS/HF4-Shell/Precursores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{55C246F7-9EC4-48C2-8C33-509D0FADF52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E4A0C5C-A95B-42AC-9234-50DF43E9BA08}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{55C246F7-9EC4-48C2-8C33-509D0FADF52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B63E7C48-1A2E-43A4-8E54-8E510688A35F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{15C0232E-BAAD-418E-84CC-EF2D84C8FD1C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15C0232E-BAAD-418E-84CC-EF2D84C8FD1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,10 @@
     <t>tecnical fault; equipment breakdown; electrical fault; sensor failure; alarm failure; structural failure; unintended pressurization; dropped object; gas leak; loss of containment; miscalibrated equipment; mechanical degradation; insulation failure; hydraulic failure; seal failure; critical system defect; pipe rupture</t>
   </si>
   <si>
-    <t>human error; lack of attention; operational failure; misjudgment; improper use of ppe; inadequate decision; rule violation; verbal communication error; noncompliance with procedure; finger injury; cut injury; door left open; not wearing; dropped object; covered detector; no epi; without epi; lack of concentration; operator error; did not follow procedure; left open; hand injury; eye injury</t>
-  </si>
-  <si>
-    <t>communication failure; absence of procedure; inadequate supervision; insufficient training; lack of planning; high turnover; lack of resources; outdated procedure; weak security culture; ineffective management of change; failure in risk assessment; inappropriate prioritization; lack of lessons learned; technical review missing; production pressure; documentation inconsistency; no procedure; lack of communication; missing procedure; no schedule; poor maintenance; no inspection; unplanned activity; preventive maintenance issue; planning failure; no pre-task briefing; poor training</t>
+    <t>human error; lack of attention; operational failure; misjudgment; improper use of ppe; inadequate decision; rule violation; verbal communication error; non compliance with procedure; finger injury; cut injury; door left open; not wearing; dropped object; covered detector; no epi; without epi; lack of concentration; operator error; did not follow procedure; left open; hand injury; eye injury</t>
+  </si>
+  <si>
+    <t>communication failure; inadequate supervision; insufficient training; lack of planning; high turnover; lack of resources; outdated procedure; weak security culture; ineffective management of change; failure in risk assessment; inappropriate prioritization; lack of lessons learned; technical review missing; production pressure; documentation inconsistency; no procedure; lack of communication; missing procedure; no schedule; poor maintenance; no inspection; unplanned activity; preventive maintenance issue; planning failure; no pre-task briefing; poor training; absence of procedure</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8B690D-557E-4202-B9E8-0A2F81721C32}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
